--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.11651099999999</v>
+        <v>5.828753</v>
       </c>
       <c r="H2">
-        <v>297.349533</v>
+        <v>17.486259</v>
       </c>
       <c r="I2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="J2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q2">
-        <v>7545.877589186104</v>
+        <v>0.3275215169053333</v>
       </c>
       <c r="R2">
-        <v>67912.89830267493</v>
+        <v>2.947693652148</v>
       </c>
       <c r="S2">
-        <v>0.7981539451017217</v>
+        <v>0.07514029304144884</v>
       </c>
       <c r="T2">
-        <v>0.7981539451017217</v>
+        <v>0.07514029304144883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.11651099999999</v>
+        <v>5.828753</v>
       </c>
       <c r="H3">
-        <v>297.349533</v>
+        <v>17.486259</v>
       </c>
       <c r="I3">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="J3">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>0.260213</v>
       </c>
       <c r="O3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q3">
-        <v>8.597134892281</v>
+        <v>0.5055724347963333</v>
       </c>
       <c r="R3">
-        <v>77.37421403052899</v>
+        <v>4.550151913167</v>
       </c>
       <c r="S3">
-        <v>0.0009093491180773132</v>
+        <v>0.1159889013192851</v>
       </c>
       <c r="T3">
-        <v>0.0009093491180773132</v>
+        <v>0.1159889013192851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.11651099999999</v>
+        <v>23.582852</v>
       </c>
       <c r="H4">
-        <v>297.349533</v>
+        <v>70.74855599999999</v>
       </c>
       <c r="I4">
-        <v>0.799346251215574</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="J4">
-        <v>0.799346251215574</v>
+        <v>0.7732994524709526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02698966666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N4">
-        <v>0.080969</v>
+        <v>0.168572</v>
       </c>
       <c r="O4">
-        <v>0.0003539855167203345</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P4">
-        <v>0.0003539855167203345</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q4">
-        <v>2.675121593052999</v>
+        <v>1.325136175781333</v>
       </c>
       <c r="R4">
-        <v>24.076094337477</v>
+        <v>11.926225582032</v>
       </c>
       <c r="S4">
-        <v>0.0002829569957750072</v>
+        <v>0.3040139820701131</v>
       </c>
       <c r="T4">
-        <v>0.0002829569957750072</v>
+        <v>0.304013982070113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>70.74855599999999</v>
       </c>
       <c r="I5">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="J5">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>76.13138833333333</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N5">
-        <v>228.394165</v>
+        <v>0.260213</v>
       </c>
       <c r="O5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q5">
-        <v>1795.395263619527</v>
+        <v>2.045521555825333</v>
       </c>
       <c r="R5">
-        <v>16158.55737257574</v>
+        <v>18.409694002428</v>
       </c>
       <c r="S5">
-        <v>0.1899052556495863</v>
+        <v>0.4692854704008396</v>
       </c>
       <c r="T5">
-        <v>0.1899052556495863</v>
+        <v>0.4692854704008396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.582852</v>
+        <v>1.084798333333333</v>
       </c>
       <c r="H6">
-        <v>70.74855599999999</v>
+        <v>3.254395</v>
       </c>
       <c r="I6">
-        <v>0.1901889417714845</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="J6">
-        <v>0.1901889417714845</v>
+        <v>0.03557135316831351</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +800,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08673766666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>0.260213</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.001137616041476965</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P6">
-        <v>0.001137616041476965</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q6">
-        <v>2.045521555825333</v>
+        <v>0.06095554154888889</v>
       </c>
       <c r="R6">
-        <v>18.409694002428</v>
+        <v>0.54859987394</v>
       </c>
       <c r="S6">
-        <v>0.0002163619910707692</v>
+        <v>0.01398447741009818</v>
       </c>
       <c r="T6">
-        <v>0.0002163619910707692</v>
+        <v>0.01398447741009817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.582852</v>
+        <v>1.084798333333333</v>
       </c>
       <c r="H7">
-        <v>70.74855599999999</v>
+        <v>3.254395</v>
       </c>
       <c r="I7">
-        <v>0.1901889417714845</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="J7">
-        <v>0.1901889417714845</v>
+        <v>0.03557135316831351</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.02698966666666667</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N7">
-        <v>0.080969</v>
+        <v>0.260213</v>
       </c>
       <c r="O7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q7">
-        <v>0.6364933145293332</v>
+        <v>0.09409287623722222</v>
       </c>
       <c r="R7">
-        <v>5.728439830764</v>
+        <v>0.8468358861350002</v>
       </c>
       <c r="S7">
-        <v>6.732413082747255E-05</v>
+        <v>0.02158687575821534</v>
       </c>
       <c r="T7">
-        <v>6.732413082747255E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.297604333333333</v>
-      </c>
-      <c r="H8">
-        <v>3.892813</v>
-      </c>
-      <c r="I8">
-        <v>0.01046480701294141</v>
-      </c>
-      <c r="J8">
-        <v>0.01046480701294141</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>76.13138833333333</v>
-      </c>
-      <c r="N8">
-        <v>228.394165</v>
-      </c>
-      <c r="O8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="P8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="Q8">
-        <v>98.78841940401611</v>
-      </c>
-      <c r="R8">
-        <v>889.0957746361449</v>
-      </c>
-      <c r="S8">
-        <v>0.01044919769049467</v>
-      </c>
-      <c r="T8">
-        <v>0.01044919769049467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.297604333333333</v>
-      </c>
-      <c r="H9">
-        <v>3.892813</v>
-      </c>
-      <c r="I9">
-        <v>0.01046480701294141</v>
-      </c>
-      <c r="J9">
-        <v>0.01046480701294141</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.08673766666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.260213</v>
-      </c>
-      <c r="O9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="P9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="Q9">
-        <v>0.1125511721298889</v>
-      </c>
-      <c r="R9">
-        <v>1.012960549169</v>
-      </c>
-      <c r="S9">
-        <v>1.190493232888279E-05</v>
-      </c>
-      <c r="T9">
-        <v>1.190493232888279E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.297604333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.892813</v>
-      </c>
-      <c r="I10">
-        <v>0.01046480701294141</v>
-      </c>
-      <c r="J10">
-        <v>0.01046480701294141</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.080969</v>
-      </c>
-      <c r="O10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="P10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="Q10">
-        <v>0.03502190842188889</v>
-      </c>
-      <c r="R10">
-        <v>0.315197175797</v>
-      </c>
-      <c r="S10">
-        <v>3.704390117854644E-06</v>
-      </c>
-      <c r="T10">
-        <v>3.704390117854644E-06</v>
+        <v>0.02158687575821534</v>
       </c>
     </row>
   </sheetData>
